--- a/Documentos/Requerimientos y Seguimiento.xlsx
+++ b/Documentos/Requerimientos y Seguimiento.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JAVERIANA\VII\GRAN ESCALA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JAVERIANA\VII\GRAN ESCALA\Módulo Restaurante\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0631D02-BAEE-4ACD-8E5F-A750E941D1EA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277059BF-C212-4ACD-A855-425A9E9FD8E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="2388" windowHeight="564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General - Tabla 1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
   <si>
     <t>Definición de requisitos RESTAURANTE</t>
   </si>
@@ -54,15 +54,6 @@
     <t>Vista comensal/restaurante</t>
   </si>
   <si>
-    <t>RT-01</t>
-  </si>
-  <si>
-    <t>Identificación de ubicación</t>
-  </si>
-  <si>
-    <t>El sistema debe tener un listado de ciudades que se desplegará en la ventana de inicio de la aplicacion</t>
-  </si>
-  <si>
     <t>Restaurante</t>
   </si>
   <si>
@@ -123,30 +114,12 @@
     <t>Visualizar información restaurante</t>
   </si>
   <si>
-    <t>AD-04</t>
-  </si>
-  <si>
-    <t>Vista usuarios-administrador</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> El sistema debe desplegar la vista del usuario-admin cuando este inicie sesión. </t>
-  </si>
-  <si>
     <t>RT-05</t>
   </si>
   <si>
     <t xml:space="preserve">Modificar información </t>
   </si>
   <si>
-    <t>El sistema debe permitir editar con facilidad el nombre, tipo de comida, dirección, descripción, teléfono, correo electrónico.</t>
-  </si>
-  <si>
-    <t>AD-05</t>
-  </si>
-  <si>
-    <t>Creación de usuarios restaurante</t>
-  </si>
-  <si>
     <t>RT-06</t>
   </si>
   <si>
@@ -156,36 +129,12 @@
     <t xml:space="preserve">El sistema debe permitir cargar hasta 8 imágenes de su restaurante. </t>
   </si>
   <si>
-    <t>AD-06</t>
-  </si>
-  <si>
-    <t>Creación de usuarios administrador</t>
-  </si>
-  <si>
     <t>RT-07</t>
   </si>
   <si>
     <t>Eliminar imágenes</t>
   </si>
   <si>
-    <t>AD-11</t>
-  </si>
-  <si>
-    <t>Perfil usuario-admin</t>
-  </si>
-  <si>
-    <t>TODOS</t>
-  </si>
-  <si>
-    <t>RT-08</t>
-  </si>
-  <si>
-    <t>Listado de tipos de comida</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> El sistema debe permitir al usuario-restaurante seleccionar el tipo de comida que ofrece su restaurante mediante una lista.</t>
-  </si>
-  <si>
     <t>RT-09</t>
   </si>
   <si>
@@ -210,27 +159,6 @@
     <t>Puntuación de restaurante</t>
   </si>
   <si>
-    <t xml:space="preserve"> El sistema debe que un usuario-comensal califique un restaurante entre 0 y 5 estrellas. </t>
-  </si>
-  <si>
-    <t>RT-12</t>
-  </si>
-  <si>
-    <t>Comentario y puntuación de restaurante</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> El sistema debe permitir escribir un comentario y simultáneamente elegir de 0 a 5 estrellas por parte del usuario-comensal para opinar y calificar un restaurante.</t>
-  </si>
-  <si>
-    <t>RT-13</t>
-  </si>
-  <si>
-    <t>Creación de opinión</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> El sistema debe guardar la opinión realizada por el usuario-comensal (comentario y/o calificación).</t>
-  </si>
-  <si>
     <t>RT-14</t>
   </si>
   <si>
@@ -243,44 +171,44 @@
     <t>Reservas</t>
   </si>
   <si>
-    <t>RT-15</t>
+    <t>Agregar mesas</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir que cada restaurante tenga la opción de estar activo o inactivo, esto determinará si el restaurante aparece en la lista que visualiza el usuario-comensal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> El sistema debe poseer una interfaz donde el usuario-restaurante pueda visualizar la información de su restaurante.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir eliminar imágenes siempre y cuando hayan imágenes para eliminar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> El sistema debe permitir que un usuario-comensal califique un restaurante entre 0 y 5 estrellas. </t>
+  </si>
+  <si>
+    <t>Sección de puntuación</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> El sistema debe tener una sección para puntuar un restaurante entre 0 y 5 estrellas. </t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al usuario-restaurante agregar una mesa con su cantidad de sillas a su restaurante.</t>
   </si>
   <si>
     <t>RT-16</t>
   </si>
   <si>
-    <t>Agregar mesas</t>
-  </si>
-  <si>
-    <t>El sistema debe permitir que cada restaurante tenga la opción de estar activo o inactivo, esto determinará si el restaurante aparece en la lista que visualiza el usuario-comensal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> El sistema debe poseer una interfaz donde el usuario-restaurante pueda visualizar la información de su restaurante.</t>
-  </si>
-  <si>
-    <t>El sistema debe permitir eliminar imágenes siempre y cuando hayan imágenes para elimina.</t>
-  </si>
-  <si>
-    <t>El sistema debe mostrar la calificación actual del restaurante cuando el usuario-restaurante inicie sesión.</t>
-  </si>
-  <si>
-    <t>El sistema debe permitir al usuario-restaurante agregar una mesa  con su cantidad de sillas a su restaurante.</t>
-  </si>
-  <si>
-    <t>El sistema debe permitir la creacion y parametrizacion de un nuevo usuario administrador de sistema para permitir el crecimiento en la administracion del sistema a manera general.</t>
-  </si>
-  <si>
-    <t>El sistema debe mostrar el perfil del usuario-admin cuando este inicia sesión.</t>
-  </si>
-  <si>
-    <t>El sistema debe permitir la creacion  de un nuevo usuario restaurante o cliente por parte de un usuario administrador.</t>
+    <t>RT-17</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir editar con facilidad el nombre, dirección, descripción, teléfono, correo electrónico, comentarios de comensales, puntuación.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -290,17 +218,6 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Times"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="12"/>
@@ -369,7 +286,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -609,34 +526,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="9"/>
       </left>
       <right style="thin">
@@ -645,111 +534,6 @@
       <top style="thin">
         <color indexed="10"/>
       </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="10"/>
       </bottom>
@@ -804,7 +588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -828,150 +612,86 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1444,10 +1164,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IV55"/>
+  <dimension ref="A1:IV52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1468,23 +1188,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40"/>
-      <c r="B1" s="63" t="s">
+      <c r="A1" s="21"/>
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="60" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="62"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="37"/>
       <c r="N1" s="2"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -1508,39 +1228,39 @@
       <c r="AH1" s="4"/>
     </row>
     <row r="2" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="46"/>
-      <c r="I2" s="45" t="s">
+      <c r="H2" s="27"/>
+      <c r="I2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="45" t="s">
+      <c r="J2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="45" t="s">
+      <c r="K2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="45" t="s">
+      <c r="L2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="45" t="s">
+      <c r="M2" s="26" t="s">
         <v>6</v>
       </c>
       <c r="N2" s="5"/>
@@ -1566,40 +1286,40 @@
       <c r="AH2" s="7"/>
     </row>
     <row r="3" spans="1:34" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="43">
+        <v>4</v>
+      </c>
+      <c r="F3" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="G3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="H3" s="32"/>
+      <c r="I3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="50">
+      <c r="J3" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="31">
         <v>4</v>
       </c>
-      <c r="F3" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="48" t="s">
+      <c r="M3" s="30" t="s">
         <v>13</v>
-      </c>
-      <c r="J3" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="50">
-        <v>4</v>
-      </c>
-      <c r="M3" s="49" t="s">
-        <v>16</v>
       </c>
       <c r="N3" s="8"/>
       <c r="O3" s="9"/>
@@ -1623,41 +1343,41 @@
       <c r="AG3" s="11"/>
       <c r="AH3" s="12"/>
     </row>
-    <row r="4" spans="1:34" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48" t="s">
+    <row r="4" spans="1:34" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="28"/>
+      <c r="B4" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="31">
+        <v>4</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="32"/>
+      <c r="I4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="J4" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="K4" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="50">
+      <c r="L4" s="31">
         <v>4</v>
       </c>
-      <c r="F4" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="48" t="s">
+      <c r="M4" s="30" t="s">
         <v>20</v>
-      </c>
-      <c r="J4" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="50">
-        <v>4</v>
-      </c>
-      <c r="M4" s="49" t="s">
-        <v>23</v>
       </c>
       <c r="N4" s="13"/>
       <c r="O4" s="9"/>
@@ -1681,41 +1401,41 @@
       <c r="AG4" s="10"/>
       <c r="AH4" s="14"/>
     </row>
-    <row r="5" spans="1:34" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="52"/>
-      <c r="B5" s="48" t="s">
+    <row r="5" spans="1:34" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="33"/>
+      <c r="B5" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="31">
+        <v>4</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="32"/>
+      <c r="I5" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="K5" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="50">
+      <c r="L5" s="31">
         <v>4</v>
       </c>
-      <c r="F5" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="50">
-        <v>4</v>
-      </c>
-      <c r="M5" s="49" t="s">
-        <v>11</v>
+      <c r="M5" s="30" t="s">
+        <v>8</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="9"/>
@@ -1739,43 +1459,33 @@
       <c r="AG5" s="10"/>
       <c r="AH5" s="14"/>
     </row>
-    <row r="6" spans="1:34" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="52"/>
-      <c r="B6" s="48" t="s">
+    <row r="6" spans="1:34" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="33"/>
+      <c r="B6" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="50">
+      <c r="D6" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="31">
         <v>4</v>
       </c>
-      <c r="F6" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="51"/>
-      <c r="I6" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="50">
-        <v>4</v>
-      </c>
-      <c r="M6" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="N6" s="8"/>
+      <c r="F6" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="11"/>
@@ -1797,43 +1507,33 @@
       <c r="AG6" s="11"/>
       <c r="AH6" s="12"/>
     </row>
-    <row r="7" spans="1:34" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
-      <c r="B7" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="50">
-        <v>4</v>
-      </c>
-      <c r="F7" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="L7" s="50">
-        <v>4</v>
-      </c>
-      <c r="M7" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="N7" s="15"/>
+    <row r="7" spans="1:34" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="33"/>
+      <c r="B7" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="31">
+        <v>2</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
@@ -1855,45 +1555,35 @@
       <c r="AG7" s="11"/>
       <c r="AH7" s="12"/>
     </row>
-    <row r="8" spans="1:34" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
-      <c r="B8" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="50">
+    <row r="8" spans="1:34" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="33"/>
+      <c r="B8" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="31">
         <v>2</v>
       </c>
-      <c r="F8" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="L8" s="50">
-        <v>4</v>
-      </c>
-      <c r="M8" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="N8" s="8"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
+      <c r="F8" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
@@ -1913,43 +1603,33 @@
       <c r="AG8" s="11"/>
       <c r="AH8" s="12"/>
     </row>
-    <row r="9" spans="1:34" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="52"/>
-      <c r="B9" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="50">
-        <v>2</v>
-      </c>
-      <c r="F9" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="51"/>
-      <c r="I9" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="K9" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="L9" s="50">
-        <v>1</v>
-      </c>
-      <c r="M9" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="N9" s="16"/>
+    <row r="9" spans="1:34" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="33"/>
+      <c r="B9" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="31">
+        <v>4</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
@@ -1971,35 +1651,35 @@
       <c r="AG9" s="11"/>
       <c r="AH9" s="12"/>
     </row>
-    <row r="10" spans="1:34" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="52"/>
-      <c r="B10" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="50">
+    <row r="10" spans="1:34" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="33"/>
+      <c r="B10" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="31">
         <v>4</v>
       </c>
-      <c r="F10" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="51"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
+      <c r="F10" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
@@ -2019,33 +1699,33 @@
       <c r="AG10" s="11"/>
       <c r="AH10" s="12"/>
     </row>
-    <row r="11" spans="1:34" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
-      <c r="B11" s="48" t="s">
+    <row r="11" spans="1:34" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="33"/>
+      <c r="B11" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="D11" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="50">
-        <v>4</v>
-      </c>
-      <c r="F11" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="51"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="16"/>
+      <c r="E11" s="31">
+        <v>3</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
@@ -2068,34 +1748,34 @@
       <c r="AH11" s="12"/>
     </row>
     <row r="12" spans="1:34" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="52"/>
-      <c r="B12" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="50">
+      <c r="A12" s="33"/>
+      <c r="B12" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="31">
         <v>4</v>
       </c>
-      <c r="F12" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="51"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
+      <c r="F12" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
@@ -2115,33 +1795,33 @@
       <c r="AG12" s="11"/>
       <c r="AH12" s="12"/>
     </row>
-    <row r="13" spans="1:34" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="52"/>
-      <c r="B13" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="50">
-        <v>3</v>
-      </c>
-      <c r="F13" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="51"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="16"/>
+    <row r="13" spans="1:34" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="33"/>
+      <c r="B13" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="31">
+        <v>4</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
@@ -2163,35 +1843,35 @@
       <c r="AG13" s="11"/>
       <c r="AH13" s="12"/>
     </row>
-    <row r="14" spans="1:34" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="52"/>
-      <c r="B14" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="50">
+    <row r="14" spans="1:34" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="33"/>
+      <c r="B14" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="31">
         <v>4</v>
       </c>
-      <c r="F14" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="51"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
+      <c r="F14" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
@@ -2212,31 +1892,19 @@
       <c r="AH14" s="12"/>
     </row>
     <row r="15" spans="1:34" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="52"/>
-      <c r="B15" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="50">
-        <v>4</v>
-      </c>
-      <c r="F15" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="56"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
@@ -2259,36 +1927,24 @@
       <c r="AG15" s="11"/>
       <c r="AH15" s="12"/>
     </row>
-    <row r="16" spans="1:34" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
-      <c r="B16" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="50">
-        <v>4</v>
-      </c>
-      <c r="F16" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="56"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
+    <row r="16" spans="1:34" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
@@ -2307,32 +1963,20 @@
       <c r="AG16" s="11"/>
       <c r="AH16" s="12"/>
     </row>
-    <row r="17" spans="1:34" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="52"/>
-      <c r="B17" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="50">
-        <v>4</v>
-      </c>
-      <c r="F17" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="56"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
+    <row r="17" spans="1:34" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
@@ -2356,35 +2000,23 @@
       <c r="AH17" s="12"/>
     </row>
     <row r="18" spans="1:34" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="52"/>
-      <c r="B18" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="50">
-        <v>4</v>
-      </c>
-      <c r="F18" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="59"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
       <c r="R18" s="11"/>
       <c r="S18" s="11"/>
       <c r="T18" s="11"/>
@@ -2403,20 +2035,20 @@
       <c r="AG18" s="11"/>
       <c r="AH18" s="12"/>
     </row>
-    <row r="19" spans="1:34" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
+    <row r="19" spans="1:34" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
@@ -2440,23 +2072,23 @@
       <c r="AH19" s="12"/>
     </row>
     <row r="20" spans="1:34" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
       <c r="R20" s="11"/>
       <c r="S20" s="11"/>
       <c r="T20" s="11"/>
@@ -2475,20 +2107,20 @@
       <c r="AG20" s="11"/>
       <c r="AH20" s="12"/>
     </row>
-    <row r="21" spans="1:34" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
+    <row r="21" spans="1:34" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
@@ -2511,24 +2143,24 @@
       <c r="AG21" s="11"/>
       <c r="AH21" s="12"/>
     </row>
-    <row r="22" spans="1:34" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
+    <row r="22" spans="1:34" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
       <c r="T22" s="11"/>
@@ -2548,19 +2180,19 @@
       <c r="AH22" s="12"/>
     </row>
     <row r="23" spans="1:34" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
       <c r="N23" s="11"/>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
@@ -2583,24 +2215,24 @@
       <c r="AG23" s="11"/>
       <c r="AH23" s="12"/>
     </row>
-    <row r="24" spans="1:34" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
+    <row r="24" spans="1:34" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
       <c r="R24" s="11"/>
       <c r="S24" s="11"/>
       <c r="T24" s="11"/>
@@ -2619,20 +2251,20 @@
       <c r="AG24" s="11"/>
       <c r="AH24" s="12"/>
     </row>
-    <row r="25" spans="1:34" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
+    <row r="25" spans="1:34" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
@@ -2655,24 +2287,24 @@
       <c r="AG25" s="11"/>
       <c r="AH25" s="12"/>
     </row>
-    <row r="26" spans="1:34" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
+    <row r="26" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
       <c r="R26" s="11"/>
       <c r="S26" s="11"/>
       <c r="T26" s="11"/>
@@ -2691,20 +2323,20 @@
       <c r="AG26" s="11"/>
       <c r="AH26" s="12"/>
     </row>
-    <row r="27" spans="1:34" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="24"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
+    <row r="27" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
@@ -2727,24 +2359,24 @@
       <c r="AG27" s="11"/>
       <c r="AH27" s="12"/>
     </row>
-    <row r="28" spans="1:34" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
+    <row r="28" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
       <c r="R28" s="11"/>
       <c r="S28" s="11"/>
       <c r="T28" s="11"/>
@@ -2764,19 +2396,19 @@
       <c r="AH28" s="12"/>
     </row>
     <row r="29" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
       <c r="N29" s="11"/>
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
@@ -2800,23 +2432,23 @@
       <c r="AH29" s="12"/>
     </row>
     <row r="30" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
       <c r="R30" s="11"/>
       <c r="S30" s="11"/>
       <c r="T30" s="11"/>
@@ -2836,19 +2468,19 @@
       <c r="AH30" s="12"/>
     </row>
     <row r="31" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
       <c r="N31" s="11"/>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
@@ -2872,23 +2504,23 @@
       <c r="AH31" s="12"/>
     </row>
     <row r="32" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
       <c r="T32" s="11"/>
@@ -2908,19 +2540,19 @@
       <c r="AH32" s="12"/>
     </row>
     <row r="33" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
       <c r="N33" s="11"/>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
@@ -2944,23 +2576,23 @@
       <c r="AH33" s="12"/>
     </row>
     <row r="34" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
       <c r="R34" s="11"/>
       <c r="S34" s="11"/>
       <c r="T34" s="11"/>
@@ -2980,19 +2612,19 @@
       <c r="AH34" s="12"/>
     </row>
     <row r="35" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
       <c r="N35" s="11"/>
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
@@ -3016,23 +2648,23 @@
       <c r="AH35" s="12"/>
     </row>
     <row r="36" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
       <c r="R36" s="11"/>
       <c r="S36" s="11"/>
       <c r="T36" s="11"/>
@@ -3052,19 +2684,19 @@
       <c r="AH36" s="12"/>
     </row>
     <row r="37" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="18"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
       <c r="N37" s="11"/>
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
@@ -3088,23 +2720,23 @@
       <c r="AH37" s="12"/>
     </row>
     <row r="38" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
       <c r="R38" s="11"/>
       <c r="S38" s="11"/>
       <c r="T38" s="11"/>
@@ -3124,19 +2756,19 @@
       <c r="AH38" s="12"/>
     </row>
     <row r="39" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
       <c r="N39" s="11"/>
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
@@ -3160,23 +2792,23 @@
       <c r="AH39" s="12"/>
     </row>
     <row r="40" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="18"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="11"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
       <c r="R40" s="11"/>
       <c r="S40" s="11"/>
       <c r="T40" s="11"/>
@@ -3196,19 +2828,19 @@
       <c r="AH40" s="12"/>
     </row>
     <row r="41" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
       <c r="N41" s="11"/>
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
@@ -3232,23 +2864,23 @@
       <c r="AH41" s="12"/>
     </row>
     <row r="42" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
       <c r="R42" s="11"/>
       <c r="S42" s="11"/>
       <c r="T42" s="11"/>
@@ -3268,19 +2900,19 @@
       <c r="AH42" s="12"/>
     </row>
     <row r="43" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
       <c r="N43" s="11"/>
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
@@ -3304,23 +2936,23 @@
       <c r="AH43" s="12"/>
     </row>
     <row r="44" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="18"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="11"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
       <c r="R44" s="11"/>
       <c r="S44" s="11"/>
       <c r="T44" s="11"/>
@@ -3340,19 +2972,19 @@
       <c r="AH44" s="12"/>
     </row>
     <row r="45" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="18"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
       <c r="N45" s="11"/>
       <c r="O45" s="11"/>
       <c r="P45" s="11"/>
@@ -3376,23 +3008,23 @@
       <c r="AH45" s="12"/>
     </row>
     <row r="46" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="18"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="11"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
       <c r="T46" s="11"/>
@@ -3412,19 +3044,19 @@
       <c r="AH46" s="12"/>
     </row>
     <row r="47" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="18"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
       <c r="N47" s="11"/>
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
@@ -3448,23 +3080,23 @@
       <c r="AH47" s="12"/>
     </row>
     <row r="48" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="18"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="11"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
       <c r="R48" s="11"/>
       <c r="S48" s="11"/>
       <c r="T48" s="11"/>
@@ -3484,19 +3116,19 @@
       <c r="AH48" s="12"/>
     </row>
     <row r="49" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="18"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
       <c r="N49" s="11"/>
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
@@ -3520,23 +3152,23 @@
       <c r="AH49" s="12"/>
     </row>
     <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="18"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="11"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
       <c r="R50" s="11"/>
       <c r="S50" s="11"/>
       <c r="T50" s="11"/>
@@ -3556,19 +3188,19 @@
       <c r="AH50" s="12"/>
     </row>
     <row r="51" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="18"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
       <c r="N51" s="11"/>
       <c r="O51" s="11"/>
       <c r="P51" s="11"/>
@@ -3592,148 +3224,40 @@
       <c r="AH51" s="12"/>
     </row>
     <row r="52" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="18"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="11"/>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="11"/>
-      <c r="R52" s="11"/>
-      <c r="S52" s="11"/>
-      <c r="T52" s="11"/>
-      <c r="U52" s="11"/>
-      <c r="V52" s="11"/>
-      <c r="W52" s="11"/>
-      <c r="X52" s="11"/>
-      <c r="Y52" s="11"/>
-      <c r="Z52" s="11"/>
-      <c r="AA52" s="11"/>
-      <c r="AB52" s="11"/>
-      <c r="AC52" s="11"/>
-      <c r="AD52" s="11"/>
-      <c r="AE52" s="11"/>
-      <c r="AF52" s="11"/>
-      <c r="AG52" s="11"/>
-      <c r="AH52" s="12"/>
-    </row>
-    <row r="53" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="18"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="11"/>
-      <c r="V53" s="11"/>
-      <c r="W53" s="11"/>
-      <c r="X53" s="11"/>
-      <c r="Y53" s="11"/>
-      <c r="Z53" s="11"/>
-      <c r="AA53" s="11"/>
-      <c r="AB53" s="11"/>
-      <c r="AC53" s="11"/>
-      <c r="AD53" s="11"/>
-      <c r="AE53" s="11"/>
-      <c r="AF53" s="11"/>
-      <c r="AG53" s="11"/>
-      <c r="AH53" s="12"/>
-    </row>
-    <row r="54" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="18"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="11"/>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="11"/>
-      <c r="R54" s="11"/>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11"/>
-      <c r="U54" s="11"/>
-      <c r="V54" s="11"/>
-      <c r="W54" s="11"/>
-      <c r="X54" s="11"/>
-      <c r="Y54" s="11"/>
-      <c r="Z54" s="11"/>
-      <c r="AA54" s="11"/>
-      <c r="AB54" s="11"/>
-      <c r="AC54" s="11"/>
-      <c r="AD54" s="11"/>
-      <c r="AE54" s="11"/>
-      <c r="AF54" s="11"/>
-      <c r="AG54" s="11"/>
-      <c r="AH54" s="12"/>
-    </row>
-    <row r="55" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="36"/>
-      <c r="B55" s="37"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="37"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="37"/>
-      <c r="M55" s="37"/>
-      <c r="N55" s="38"/>
-      <c r="O55" s="38"/>
-      <c r="P55" s="38"/>
-      <c r="Q55" s="38"/>
-      <c r="R55" s="38"/>
-      <c r="S55" s="38"/>
-      <c r="T55" s="38"/>
-      <c r="U55" s="38"/>
-      <c r="V55" s="38"/>
-      <c r="W55" s="38"/>
-      <c r="X55" s="38"/>
-      <c r="Y55" s="38"/>
-      <c r="Z55" s="38"/>
-      <c r="AA55" s="38"/>
-      <c r="AB55" s="38"/>
-      <c r="AC55" s="38"/>
-      <c r="AD55" s="38"/>
-      <c r="AE55" s="38"/>
-      <c r="AF55" s="38"/>
-      <c r="AG55" s="38"/>
-      <c r="AH55" s="39"/>
+      <c r="A52" s="17"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="19"/>
+      <c r="S52" s="19"/>
+      <c r="T52" s="19"/>
+      <c r="U52" s="19"/>
+      <c r="V52" s="19"/>
+      <c r="W52" s="19"/>
+      <c r="X52" s="19"/>
+      <c r="Y52" s="19"/>
+      <c r="Z52" s="19"/>
+      <c r="AA52" s="19"/>
+      <c r="AB52" s="19"/>
+      <c r="AC52" s="19"/>
+      <c r="AD52" s="19"/>
+      <c r="AE52" s="19"/>
+      <c r="AF52" s="19"/>
+      <c r="AG52" s="19"/>
+      <c r="AH52" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Documentos/Requerimientos y Seguimiento.xlsx
+++ b/Documentos/Requerimientos y Seguimiento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JAVERIANA\VII\GRAN ESCALA\Módulo Restaurante\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277059BF-C212-4ACD-A855-425A9E9FD8E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8574379-E0C9-4FE3-817D-7AFAE186BEEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2820" yWindow="2820" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General - Tabla 1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
   <si>
     <t>Definición de requisitos RESTAURANTE</t>
   </si>
@@ -72,15 +72,6 @@
     <t>Administrador</t>
   </si>
   <si>
-    <t>RT-02</t>
-  </si>
-  <si>
-    <t>Listado de ciudades</t>
-  </si>
-  <si>
-    <t>El sistema debe desplegar un listado de restaurantes disponibles para esa ubicación de los cuales el usuario-comensal podrá escoger.</t>
-  </si>
-  <si>
     <t>AD-02</t>
   </si>
   <si>
@@ -93,12 +84,6 @@
     <t>Cliente</t>
   </si>
   <si>
-    <t>RT-03</t>
-  </si>
-  <si>
-    <t>Listado de restaurantes</t>
-  </si>
-  <si>
     <t>AD-03</t>
   </si>
   <si>
@@ -174,9 +159,6 @@
     <t>Agregar mesas</t>
   </si>
   <si>
-    <t>El sistema debe permitir que cada restaurante tenga la opción de estar activo o inactivo, esto determinará si el restaurante aparece en la lista que visualiza el usuario-comensal.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> El sistema debe poseer una interfaz donde el usuario-restaurante pueda visualizar la información de su restaurante.</t>
   </si>
   <si>
@@ -202,6 +184,15 @@
   </si>
   <si>
     <t>El sistema debe permitir editar con facilidad el nombre, dirección, descripción, teléfono, correo electrónico, comentarios de comensales, puntuación.</t>
+  </si>
+  <si>
+    <t>RT-18</t>
+  </si>
+  <si>
+    <t>Visualizar restaurante</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> El sistema debe poseer una interfaz donde el usuario-comensal pueda visualizar la información del restaurante seleccionad.</t>
   </si>
 </sst>
 </file>
@@ -588,7 +579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -683,15 +674,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1166,8 +1148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1287,23 +1269,23 @@
     </row>
     <row r="3" spans="1:34" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28"/>
-      <c r="B3" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="43">
+      <c r="B3" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="31">
         <v>4</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="42" t="s">
-        <v>9</v>
+      <c r="G3" s="30" t="s">
+        <v>8</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="29" t="s">
@@ -1346,13 +1328,13 @@
     <row r="4" spans="1:34" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
       <c r="B4" s="29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E4" s="31">
         <v>4</v>
@@ -1361,23 +1343,23 @@
         <v>8</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="29" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J4" s="30" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K4" s="30" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L4" s="31">
         <v>4</v>
       </c>
       <c r="M4" s="30" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N4" s="13"/>
       <c r="O4" s="9"/>
@@ -1404,16 +1386,16 @@
     <row r="5" spans="1:34" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="33"/>
       <c r="B5" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="D5" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="30" t="s">
-        <v>49</v>
-      </c>
       <c r="E5" s="31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>8</v>
@@ -1423,13 +1405,13 @@
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="29" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J5" s="30" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K5" s="30" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L5" s="31">
         <v>4</v>
@@ -1468,10 +1450,10 @@
         <v>29</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E6" s="31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>8</v>
@@ -1519,13 +1501,13 @@
         <v>32</v>
       </c>
       <c r="E7" s="31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7" s="30" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
@@ -1563,17 +1545,17 @@
       <c r="C8" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="30" t="s">
-        <v>50</v>
+      <c r="D8" s="34" t="s">
+        <v>35</v>
       </c>
       <c r="E8" s="31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8" s="30" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -1606,13 +1588,13 @@
     <row r="9" spans="1:34" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="33"/>
       <c r="B9" s="29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="30" t="s">
         <v>37</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>45</v>
       </c>
       <c r="E9" s="31">
         <v>4</v>
@@ -1659,17 +1641,17 @@
       <c r="C10" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="30" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="31">
         <v>4</v>
       </c>
       <c r="F10" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="30" t="s">
         <v>8</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>9</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -1700,24 +1682,23 @@
       <c r="AH10" s="12"/>
     </row>
     <row r="11" spans="1:34" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="33"/>
       <c r="B11" s="29" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>53</v>
+        <v>42</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>48</v>
       </c>
       <c r="E11" s="31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="30" t="s">
         <v>8</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>9</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
@@ -1750,16 +1731,16 @@
     <row r="12" spans="1:34" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33"/>
       <c r="B12" s="29" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E12" s="31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12" s="30" t="s">
         <v>8</v>
@@ -1798,22 +1779,22 @@
     <row r="13" spans="1:34" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="33"/>
       <c r="B13" s="29" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E13" s="31">
         <v>4</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
@@ -1844,25 +1825,13 @@
       <c r="AH13" s="12"/>
     </row>
     <row r="14" spans="1:34" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33"/>
-      <c r="B14" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="31">
-        <v>4</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>8</v>
-      </c>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1892,13 +1861,13 @@
       <c r="AH14" s="12"/>
     </row>
     <row r="15" spans="1:34" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
@@ -1928,13 +1897,13 @@
       <c r="AH15" s="12"/>
     </row>
     <row r="16" spans="1:34" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>

--- a/Documentos/Requerimientos y Seguimiento.xlsx
+++ b/Documentos/Requerimientos y Seguimiento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JAVERIANA\VII\GRAN ESCALA\Módulo Restaurante\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8574379-E0C9-4FE3-817D-7AFAE186BEEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15048070-B030-454D-9496-68E958FF3C87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="2820" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3168" yWindow="3168" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General - Tabla 1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="64">
   <si>
     <t>Definición de requisitos RESTAURANTE</t>
   </si>
@@ -192,14 +192,41 @@
     <t>Visualizar restaurante</t>
   </si>
   <si>
-    <t xml:space="preserve"> El sistema debe poseer una interfaz donde el usuario-comensal pueda visualizar la información del restaurante seleccionad.</t>
+    <t xml:space="preserve"> El sistema debe poseer una interfaz donde el usuario-comensal pueda visualizar la información del restaurante seleccionado.</t>
+  </si>
+  <si>
+    <t>RT-19</t>
+  </si>
+  <si>
+    <t>Visualizar imágenes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistema debe permitir visualizar las imágenes de su restaurante. </t>
+  </si>
+  <si>
+    <t>RT-02</t>
+  </si>
+  <si>
+    <t>RT-03</t>
+  </si>
+  <si>
+    <t>Listado de ciudades</t>
+  </si>
+  <si>
+    <t>El sistema debe desplegar un listado de restaurantes disponibles para esa ubicación de los cuales el usuario-comensal podrá escoger.</t>
+  </si>
+  <si>
+    <t>Listado de restaurantes</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir que cada restaurante tenga la opción de estar activo o inactivo, esto determinará si el restaurante aparece en la lista que visualiza el usuario-comensal.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -209,11 +236,6 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Times"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
@@ -277,7 +299,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -575,6 +597,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
@@ -603,9 +638,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -621,59 +653,62 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1146,10 +1181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IV52"/>
+  <dimension ref="A1:IV54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1170,23 +1205,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21"/>
-      <c r="B1" s="38" t="s">
+      <c r="A1" s="20"/>
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="35" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="37"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="36"/>
       <c r="N1" s="2"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -1210,39 +1245,39 @@
       <c r="AH1" s="4"/>
     </row>
     <row r="2" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="26" t="s">
+      <c r="H2" s="26"/>
+      <c r="I2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="25" t="s">
         <v>6</v>
       </c>
       <c r="N2" s="5"/>
@@ -1267,156 +1302,156 @@
       <c r="AG2" s="6"/>
       <c r="AH2" s="7"/>
     </row>
-    <row r="3" spans="1:34" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29" t="s">
+    <row r="3" spans="1:34" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="40"/>
+      <c r="B3" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="30">
+        <v>4</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="26"/>
+      <c r="I3" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="30">
+        <v>4</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="7"/>
+    </row>
+    <row r="4" spans="1:34" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="40"/>
+      <c r="B4" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="30">
+        <v>4</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="26"/>
+      <c r="I4" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="30">
+        <v>4</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="7"/>
+    </row>
+    <row r="5" spans="1:34" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C5" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D5" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E5" s="30">
         <v>4</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="31">
+      <c r="H5" s="31"/>
+      <c r="I5" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="30">
         <v>4</v>
       </c>
-      <c r="M3" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="12"/>
-    </row>
-    <row r="4" spans="1:34" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="31">
-        <v>4</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="31">
-        <v>4</v>
-      </c>
-      <c r="M4" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="14"/>
-    </row>
-    <row r="5" spans="1:34" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
-      <c r="B5" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="31">
-        <v>2</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="31">
-        <v>4</v>
-      </c>
-      <c r="M5" s="30" t="s">
+      <c r="M5" s="29" t="s">
         <v>8</v>
       </c>
       <c r="N5" s="8"/>
@@ -1435,135 +1470,135 @@
       <c r="AA5" s="10"/>
       <c r="AB5" s="10"/>
       <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="14"/>
-    </row>
-    <row r="6" spans="1:34" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
-      <c r="B6" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="31">
-        <v>2</v>
-      </c>
-      <c r="F6" s="30" t="s">
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="12"/>
+    </row>
+    <row r="6" spans="1:34" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27"/>
+      <c r="B6" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="30">
+        <v>4</v>
+      </c>
+      <c r="F6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="29" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11"/>
-      <c r="AG6" s="11"/>
-      <c r="AH6" s="12"/>
-    </row>
-    <row r="7" spans="1:34" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
-      <c r="B7" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="31">
-        <v>4</v>
-      </c>
-      <c r="F7" s="30" t="s">
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="13"/>
+    </row>
+    <row r="7" spans="1:34" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="32"/>
+      <c r="B7" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="30">
+        <v>2</v>
+      </c>
+      <c r="F7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="11"/>
-      <c r="AH7" s="12"/>
-    </row>
-    <row r="8" spans="1:34" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33"/>
-      <c r="B8" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="31">
-        <v>4</v>
-      </c>
-      <c r="F8" s="30" t="s">
+      <c r="G7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="30" t="s">
-        <v>9</v>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="13"/>
+    </row>
+    <row r="8" spans="1:34" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="32"/>
+      <c r="B8" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="30">
+        <v>2</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>8</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="11"/>
@@ -1585,24 +1620,24 @@
       <c r="AG8" s="11"/>
       <c r="AH8" s="12"/>
     </row>
-    <row r="9" spans="1:34" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33"/>
-      <c r="B9" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="31">
+    <row r="9" spans="1:34" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="32"/>
+      <c r="B9" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="30">
         <v>4</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="29" t="s">
         <v>9</v>
       </c>
       <c r="H9" s="11"/>
@@ -1634,24 +1669,24 @@
       <c r="AH9" s="12"/>
     </row>
     <row r="10" spans="1:34" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33"/>
-      <c r="B10" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="31">
+      <c r="A10" s="32"/>
+      <c r="B10" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="30">
         <v>4</v>
       </c>
-      <c r="F10" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="30" t="s">
+      <c r="F10" s="29" t="s">
         <v>8</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>9</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -1682,23 +1717,24 @@
       <c r="AH10" s="12"/>
     </row>
     <row r="11" spans="1:34" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="31">
+      <c r="A11" s="32"/>
+      <c r="B11" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="30">
         <v>4</v>
       </c>
-      <c r="F11" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="30" t="s">
+      <c r="F11" s="29" t="s">
         <v>8</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>9</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
@@ -1728,25 +1764,25 @@
       <c r="AG11" s="11"/>
       <c r="AH11" s="12"/>
     </row>
-    <row r="12" spans="1:34" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33"/>
-      <c r="B12" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="31">
-        <v>3</v>
-      </c>
-      <c r="F12" s="30" t="s">
+    <row r="12" spans="1:34" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="32"/>
+      <c r="B12" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="30">
+        <v>4</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="29" t="s">
         <v>8</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>9</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -1776,25 +1812,24 @@
       <c r="AG12" s="11"/>
       <c r="AH12" s="12"/>
     </row>
-    <row r="13" spans="1:34" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33"/>
-      <c r="B13" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="31">
+    <row r="13" spans="1:34" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="30">
         <v>4</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="29" t="s">
         <v>8</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>9</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
@@ -1825,13 +1860,25 @@
       <c r="AH13" s="12"/>
     </row>
     <row r="14" spans="1:34" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="30">
+        <v>3</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>9</v>
+      </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1860,14 +1907,26 @@
       <c r="AG14" s="11"/>
       <c r="AH14" s="12"/>
     </row>
-    <row r="15" spans="1:34" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+    <row r="15" spans="1:34" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="32"/>
+      <c r="B15" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="30">
+        <v>4</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>9</v>
+      </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
@@ -1896,14 +1955,26 @@
       <c r="AG15" s="11"/>
       <c r="AH15" s="12"/>
     </row>
-    <row r="16" spans="1:34" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+    <row r="16" spans="1:34" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="30">
+        <v>2</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>8</v>
+      </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1913,7 +1984,7 @@
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
+      <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
@@ -1933,13 +2004,13 @@
       <c r="AH16" s="12"/>
     </row>
     <row r="17" spans="1:34" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
@@ -1968,14 +2039,14 @@
       <c r="AG17" s="11"/>
       <c r="AH17" s="12"/>
     </row>
-    <row r="18" spans="1:34" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+    <row r="18" spans="1:34" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2076,7 +2147,7 @@
       <c r="AG20" s="11"/>
       <c r="AH20" s="12"/>
     </row>
-    <row r="21" spans="1:34" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -2112,7 +2183,7 @@
       <c r="AG21" s="11"/>
       <c r="AH21" s="12"/>
     </row>
-    <row r="22" spans="1:34" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -2148,7 +2219,7 @@
       <c r="AG22" s="11"/>
       <c r="AH22" s="12"/>
     </row>
-    <row r="23" spans="1:34" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -2184,7 +2255,7 @@
       <c r="AG23" s="11"/>
       <c r="AH23" s="12"/>
     </row>
-    <row r="24" spans="1:34" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:34" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -2220,7 +2291,7 @@
       <c r="AG24" s="11"/>
       <c r="AH24" s="12"/>
     </row>
-    <row r="25" spans="1:34" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -2256,7 +2327,7 @@
       <c r="AG25" s="11"/>
       <c r="AH25" s="12"/>
     </row>
-    <row r="26" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -2292,7 +2363,7 @@
       <c r="AG26" s="11"/>
       <c r="AH26" s="12"/>
     </row>
-    <row r="27" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -3157,19 +3228,19 @@
       <c r="AH50" s="12"/>
     </row>
     <row r="51" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="16"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15"/>
-      <c r="M51" s="15"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
       <c r="N51" s="11"/>
       <c r="O51" s="11"/>
       <c r="P51" s="11"/>
@@ -3193,40 +3264,112 @@
       <c r="AH51" s="12"/>
     </row>
     <row r="52" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="17"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="19"/>
-      <c r="O52" s="19"/>
-      <c r="P52" s="19"/>
-      <c r="Q52" s="19"/>
-      <c r="R52" s="19"/>
-      <c r="S52" s="19"/>
-      <c r="T52" s="19"/>
-      <c r="U52" s="19"/>
-      <c r="V52" s="19"/>
-      <c r="W52" s="19"/>
-      <c r="X52" s="19"/>
-      <c r="Y52" s="19"/>
-      <c r="Z52" s="19"/>
-      <c r="AA52" s="19"/>
-      <c r="AB52" s="19"/>
-      <c r="AC52" s="19"/>
-      <c r="AD52" s="19"/>
-      <c r="AE52" s="19"/>
-      <c r="AF52" s="19"/>
-      <c r="AG52" s="19"/>
-      <c r="AH52" s="20"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="11"/>
+      <c r="T52" s="11"/>
+      <c r="U52" s="11"/>
+      <c r="V52" s="11"/>
+      <c r="W52" s="11"/>
+      <c r="X52" s="11"/>
+      <c r="Y52" s="11"/>
+      <c r="Z52" s="11"/>
+      <c r="AA52" s="11"/>
+      <c r="AB52" s="11"/>
+      <c r="AC52" s="11"/>
+      <c r="AD52" s="11"/>
+      <c r="AE52" s="11"/>
+      <c r="AF52" s="11"/>
+      <c r="AG52" s="11"/>
+      <c r="AH52" s="12"/>
+    </row>
+    <row r="53" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="15"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="11"/>
+      <c r="U53" s="11"/>
+      <c r="V53" s="11"/>
+      <c r="W53" s="11"/>
+      <c r="X53" s="11"/>
+      <c r="Y53" s="11"/>
+      <c r="Z53" s="11"/>
+      <c r="AA53" s="11"/>
+      <c r="AB53" s="11"/>
+      <c r="AC53" s="11"/>
+      <c r="AD53" s="11"/>
+      <c r="AE53" s="11"/>
+      <c r="AF53" s="11"/>
+      <c r="AG53" s="11"/>
+      <c r="AH53" s="12"/>
+    </row>
+    <row r="54" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="16"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="18"/>
+      <c r="Q54" s="18"/>
+      <c r="R54" s="18"/>
+      <c r="S54" s="18"/>
+      <c r="T54" s="18"/>
+      <c r="U54" s="18"/>
+      <c r="V54" s="18"/>
+      <c r="W54" s="18"/>
+      <c r="X54" s="18"/>
+      <c r="Y54" s="18"/>
+      <c r="Z54" s="18"/>
+      <c r="AA54" s="18"/>
+      <c r="AB54" s="18"/>
+      <c r="AC54" s="18"/>
+      <c r="AD54" s="18"/>
+      <c r="AE54" s="18"/>
+      <c r="AF54" s="18"/>
+      <c r="AG54" s="18"/>
+      <c r="AH54" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3234,7 +3377,7 @@
     <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="2048"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="2048" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Documentos/Requerimientos y Seguimiento.xlsx
+++ b/Documentos/Requerimientos y Seguimiento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JAVERIANA\VII\GRAN ESCALA\Módulo Restaurante\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15048070-B030-454D-9496-68E958FF3C87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539F3556-50F7-4CB9-897F-DB3798A872A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3168" yWindow="3168" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3864" yWindow="3864" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General - Tabla 1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="73">
   <si>
     <t>Definición de requisitos RESTAURANTE</t>
   </si>
@@ -156,9 +156,6 @@
     <t>Reservas</t>
   </si>
   <si>
-    <t>Agregar mesas</t>
-  </si>
-  <si>
     <t xml:space="preserve"> El sistema debe poseer una interfaz donde el usuario-restaurante pueda visualizar la información de su restaurante.</t>
   </si>
   <si>
@@ -174,9 +171,6 @@
     <t xml:space="preserve"> El sistema debe tener una sección para puntuar un restaurante entre 0 y 5 estrellas. </t>
   </si>
   <si>
-    <t>El sistema debe permitir al usuario-restaurante agregar una mesa con su cantidad de sillas a su restaurante.</t>
-  </si>
-  <si>
     <t>RT-16</t>
   </si>
   <si>
@@ -220,13 +214,46 @@
   </si>
   <si>
     <t>El sistema debe permitir que cada restaurante tenga la opción de estar activo o inactivo, esto determinará si el restaurante aparece en la lista que visualiza el usuario-comensal.</t>
+  </si>
+  <si>
+    <t>Visualizar mesas</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al usuario-restaurante ver un listado de las mesas añadidas con su cantidad de sillas a su restaurante.</t>
+  </si>
+  <si>
+    <t>Visualizar galería</t>
+  </si>
+  <si>
+    <t>RT-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistema debe permitir al usuario-comensal visualizar las imágenes de un restaurante. </t>
+  </si>
+  <si>
+    <t>RT-21</t>
+  </si>
+  <si>
+    <t>RT-22</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Puntuación</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> El sistema debe permitir ver los comentarios hechos por los comensales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> El sistema debe permitir ver la puntación hecha por los comensales.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -259,6 +286,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -614,7 +648,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -689,6 +723,12 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -706,9 +746,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1181,10 +1218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IV54"/>
+  <dimension ref="A1:IV50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1200,28 +1237,28 @@
     <col min="10" max="10" width="20.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="45.6640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5546875" style="1" customWidth="1"/>
     <col min="14" max="256" width="8.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20"/>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
       <c r="G1" s="21"/>
       <c r="H1" s="22"/>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="36"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="38"/>
       <c r="N1" s="2"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -1303,15 +1340,15 @@
       <c r="AH2" s="7"/>
     </row>
     <row r="3" spans="1:34" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="29" t="s">
-        <v>60</v>
-      </c>
       <c r="D3" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E3" s="30">
         <v>4</v>
@@ -1361,15 +1398,15 @@
       <c r="AH3" s="7"/>
     </row>
     <row r="4" spans="1:34" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E4" s="30">
         <v>4</v>
@@ -1427,7 +1464,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="30">
         <v>4</v>
@@ -1485,7 +1522,7 @@
         <v>24</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E6" s="30">
         <v>4</v>
@@ -1581,7 +1618,7 @@
         <v>29</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="30">
         <v>2</v>
@@ -1725,7 +1762,7 @@
         <v>37</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="30">
         <v>4</v>
@@ -1814,13 +1851,13 @@
     </row>
     <row r="13" spans="1:34" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E13" s="30">
         <v>4</v>
@@ -1862,13 +1899,13 @@
     <row r="14" spans="1:34" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="32"/>
       <c r="B14" s="28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="33" t="s">
         <v>46</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>47</v>
       </c>
       <c r="E14" s="30">
         <v>3</v>
@@ -1910,13 +1947,13 @@
     <row r="15" spans="1:34" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="32"/>
       <c r="B15" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="29" t="s">
         <v>52</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>54</v>
       </c>
       <c r="E15" s="30">
         <v>4</v>
@@ -1958,13 +1995,13 @@
     <row r="16" spans="1:34" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="29" t="s">
         <v>55</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>57</v>
       </c>
       <c r="E16" s="30">
         <v>2</v>
@@ -2004,13 +2041,25 @@
       <c r="AH16" s="12"/>
     </row>
     <row r="17" spans="1:34" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="30">
+        <v>2</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>9</v>
+      </c>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
@@ -2039,14 +2088,26 @@
       <c r="AG17" s="11"/>
       <c r="AH17" s="12"/>
     </row>
-    <row r="18" spans="1:34" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+    <row r="18" spans="1:34" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="30">
+        <v>4</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>8</v>
+      </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2075,14 +2136,26 @@
       <c r="AG18" s="11"/>
       <c r="AH18" s="12"/>
     </row>
-    <row r="19" spans="1:34" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="B19" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="30">
+        <v>3</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>8</v>
+      </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
@@ -2111,14 +2184,14 @@
       <c r="AG19" s="11"/>
       <c r="AH19" s="12"/>
     </row>
-    <row r="20" spans="1:34" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="G20" s="35"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2147,7 +2220,7 @@
       <c r="AG20" s="11"/>
       <c r="AH20" s="12"/>
     </row>
-    <row r="21" spans="1:34" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -2183,7 +2256,7 @@
       <c r="AG21" s="11"/>
       <c r="AH21" s="12"/>
     </row>
-    <row r="22" spans="1:34" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -2219,7 +2292,7 @@
       <c r="AG22" s="11"/>
       <c r="AH22" s="12"/>
     </row>
-    <row r="23" spans="1:34" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -2255,7 +2328,7 @@
       <c r="AG23" s="11"/>
       <c r="AH23" s="12"/>
     </row>
-    <row r="24" spans="1:34" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -2291,7 +2364,7 @@
       <c r="AG24" s="11"/>
       <c r="AH24" s="12"/>
     </row>
-    <row r="25" spans="1:34" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -2327,7 +2400,7 @@
       <c r="AG25" s="11"/>
       <c r="AH25" s="12"/>
     </row>
-    <row r="26" spans="1:34" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -2363,7 +2436,7 @@
       <c r="AG26" s="11"/>
       <c r="AH26" s="12"/>
     </row>
-    <row r="27" spans="1:34" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -3156,19 +3229,19 @@
       <c r="AH48" s="12"/>
     </row>
     <row r="49" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
       <c r="N49" s="11"/>
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
@@ -3192,184 +3265,40 @@
       <c r="AH49" s="12"/>
     </row>
     <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="9"/>
-      <c r="R50" s="11"/>
-      <c r="S50" s="11"/>
-      <c r="T50" s="11"/>
-      <c r="U50" s="11"/>
-      <c r="V50" s="11"/>
-      <c r="W50" s="11"/>
-      <c r="X50" s="11"/>
-      <c r="Y50" s="11"/>
-      <c r="Z50" s="11"/>
-      <c r="AA50" s="11"/>
-      <c r="AB50" s="11"/>
-      <c r="AC50" s="11"/>
-      <c r="AD50" s="11"/>
-      <c r="AE50" s="11"/>
-      <c r="AF50" s="11"/>
-      <c r="AG50" s="11"/>
-      <c r="AH50" s="12"/>
-    </row>
-    <row r="51" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11"/>
-      <c r="O51" s="11"/>
-      <c r="P51" s="11"/>
-      <c r="Q51" s="11"/>
-      <c r="R51" s="11"/>
-      <c r="S51" s="11"/>
-      <c r="T51" s="11"/>
-      <c r="U51" s="11"/>
-      <c r="V51" s="11"/>
-      <c r="W51" s="11"/>
-      <c r="X51" s="11"/>
-      <c r="Y51" s="11"/>
-      <c r="Z51" s="11"/>
-      <c r="AA51" s="11"/>
-      <c r="AB51" s="11"/>
-      <c r="AC51" s="11"/>
-      <c r="AD51" s="11"/>
-      <c r="AE51" s="11"/>
-      <c r="AF51" s="11"/>
-      <c r="AG51" s="11"/>
-      <c r="AH51" s="12"/>
-    </row>
-    <row r="52" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="9"/>
-      <c r="R52" s="11"/>
-      <c r="S52" s="11"/>
-      <c r="T52" s="11"/>
-      <c r="U52" s="11"/>
-      <c r="V52" s="11"/>
-      <c r="W52" s="11"/>
-      <c r="X52" s="11"/>
-      <c r="Y52" s="11"/>
-      <c r="Z52" s="11"/>
-      <c r="AA52" s="11"/>
-      <c r="AB52" s="11"/>
-      <c r="AC52" s="11"/>
-      <c r="AD52" s="11"/>
-      <c r="AE52" s="11"/>
-      <c r="AF52" s="11"/>
-      <c r="AG52" s="11"/>
-      <c r="AH52" s="12"/>
-    </row>
-    <row r="53" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="15"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="14"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="11"/>
-      <c r="V53" s="11"/>
-      <c r="W53" s="11"/>
-      <c r="X53" s="11"/>
-      <c r="Y53" s="11"/>
-      <c r="Z53" s="11"/>
-      <c r="AA53" s="11"/>
-      <c r="AB53" s="11"/>
-      <c r="AC53" s="11"/>
-      <c r="AD53" s="11"/>
-      <c r="AE53" s="11"/>
-      <c r="AF53" s="11"/>
-      <c r="AG53" s="11"/>
-      <c r="AH53" s="12"/>
-    </row>
-    <row r="54" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="16"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="18"/>
-      <c r="O54" s="18"/>
-      <c r="P54" s="18"/>
-      <c r="Q54" s="18"/>
-      <c r="R54" s="18"/>
-      <c r="S54" s="18"/>
-      <c r="T54" s="18"/>
-      <c r="U54" s="18"/>
-      <c r="V54" s="18"/>
-      <c r="W54" s="18"/>
-      <c r="X54" s="18"/>
-      <c r="Y54" s="18"/>
-      <c r="Z54" s="18"/>
-      <c r="AA54" s="18"/>
-      <c r="AB54" s="18"/>
-      <c r="AC54" s="18"/>
-      <c r="AD54" s="18"/>
-      <c r="AE54" s="18"/>
-      <c r="AF54" s="18"/>
-      <c r="AG54" s="18"/>
-      <c r="AH54" s="19"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="18"/>
+      <c r="R50" s="18"/>
+      <c r="S50" s="18"/>
+      <c r="T50" s="18"/>
+      <c r="U50" s="18"/>
+      <c r="V50" s="18"/>
+      <c r="W50" s="18"/>
+      <c r="X50" s="18"/>
+      <c r="Y50" s="18"/>
+      <c r="Z50" s="18"/>
+      <c r="AA50" s="18"/>
+      <c r="AB50" s="18"/>
+      <c r="AC50" s="18"/>
+      <c r="AD50" s="18"/>
+      <c r="AE50" s="18"/>
+      <c r="AF50" s="18"/>
+      <c r="AG50" s="18"/>
+      <c r="AH50" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
